--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115677.6083003788</v>
+        <v>113239.135200632</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>307.0284381244533</v>
       </c>
       <c r="D2" t="n">
-        <v>258.3919485350976</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>203.492623768269</v>
       </c>
       <c r="H2" t="n">
-        <v>233.4029755357563</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>119.8620943363772</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,7 +871,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>278.1429131767413</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>137.0709134223711</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>183.8751672983367</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>189.1329927668886</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.5174356271579</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>83.82099721688213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>142.0381031122198</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>79.54581243241793</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
-        <v>35.88641949135548</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695258</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>55.52079624059519</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>112.291972511909</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428033</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.074115415944</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>136.2892803597729</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>45.16086499484521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1758.295537883725</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1389.333020943314</v>
+        <v>611.6407204003808</v>
       </c>
       <c r="D2" t="n">
-        <v>1128.331052726043</v>
+        <v>611.6407204003808</v>
       </c>
       <c r="E2" t="n">
-        <v>1128.331052726043</v>
+        <v>611.6407204003808</v>
       </c>
       <c r="F2" t="n">
-        <v>717.3451479364358</v>
+        <v>611.6407204003808</v>
       </c>
       <c r="G2" t="n">
-        <v>302.2726977814322</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923659</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.034709923659</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2144.895377947847</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>431.1278029579775</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>431.1278029579775</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>431.1278029579775</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>431.1278029579775</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>431.1278029579775</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,10 +4507,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4519,19 +4519,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995249</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>651.9203821015076</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.1278029579775</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>769.4825048886544</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810562</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
         <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2823.329208306698</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2470.560553036583</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2097.094794775503</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1706.955462799692</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4647,43 +4647,43 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1741.562055867951</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1452.459188993594</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1197.774700787707</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>908.3575307507468</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="X7" t="n">
-        <v>680.3679798527295</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.3679798527295</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1944.904841306683</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4893,40 +4893,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>653.2087215510563</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>653.2087215510563</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>503.0920821387206</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1565.428901185557</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1276.3260343112</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1021.641546105313</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X10" t="n">
-        <v>874.0013006945865</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y10" t="n">
-        <v>653.2087215510563</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5033,28 +5033,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488567</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>883.8931825606599</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>733.7765431483241</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>585.863449565931</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>438.9735020680206</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>271.7774027829005</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,40 +5267,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5343,31 +5343,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797182</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797182</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797182</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797182</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216023</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238964</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583162</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377275</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340314</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442297</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987668</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5519,16 +5519,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.4916164683283</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>754.5554335404214</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>604.4387941280856</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>456.5257005456925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6440,13 +6440,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,22 +7549,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>58.24445364655428</v>
       </c>
       <c r="D2" t="n">
-        <v>96.29109308558537</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610494</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>33.12907551102222</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823257</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909865092</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51053793615074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>30.95754073885496</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>44.73700564187207</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>180.5487903941919</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406865</v>
+        <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="F2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="F2" t="n">
-        <v>343037.3048682525</v>
-      </c>
       <c r="G2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682529</v>
       </c>
       <c r="K2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="N2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="L2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682527</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.869591415015748e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.18870809476357e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49019.07124050442</v>
+        <v>49019.07124050424</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26436,13 +26436,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181816</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26451,7 +26451,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1168441.881388804</v>
+        <v>-1168628.274777343</v>
       </c>
       <c r="C6" t="n">
-        <v>149434.8566777576</v>
+        <v>149434.8566777575</v>
       </c>
       <c r="D6" t="n">
-        <v>149434.8566777578</v>
+        <v>149434.8566777577</v>
       </c>
       <c r="E6" t="n">
-        <v>-95884.60694482751</v>
+        <v>-95919.34487026304</v>
       </c>
       <c r="F6" t="n">
-        <v>229527.8548625274</v>
+        <v>229493.1169370917</v>
       </c>
       <c r="G6" t="n">
-        <v>229527.8548625274</v>
+        <v>229493.1169370917</v>
       </c>
       <c r="H6" t="n">
-        <v>229527.8548625274</v>
+        <v>229493.1169370916</v>
       </c>
       <c r="I6" t="n">
-        <v>229527.8548625273</v>
+        <v>229493.1169370917</v>
       </c>
       <c r="J6" t="n">
-        <v>11996.65246525018</v>
+        <v>11961.91453981453</v>
       </c>
       <c r="K6" t="n">
-        <v>229527.8548625275</v>
+        <v>229493.116937092</v>
       </c>
       <c r="L6" t="n">
-        <v>229527.8548625273</v>
+        <v>229493.1169370918</v>
       </c>
       <c r="M6" t="n">
-        <v>144472.8269270158</v>
+        <v>144438.0890015802</v>
       </c>
       <c r="N6" t="n">
-        <v>229527.8548625275</v>
+        <v>229493.1169370919</v>
       </c>
       <c r="O6" t="n">
-        <v>229527.8548625273</v>
+        <v>229493.1169370917</v>
       </c>
       <c r="P6" t="n">
-        <v>229527.8548625275</v>
+        <v>229493.1169370918</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>207.4291018851845</v>
       </c>
       <c r="H2" t="n">
-        <v>61.20478885156416</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>73.85778156328857</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>46.16371392265104</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>103.7874568955204</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>190.6813450477638</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>35.67378197783253</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>97.39000556970237</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.4777363317441</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>302.4169414391715</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4.395859534349398</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>140.0031368437513</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.049472282640635e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.948695672726</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507077</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066234</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>45.87687150790108</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060414</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
